--- a/Abnormality of the voice_v1.0.xlsx
+++ b/Abnormality of the voice_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doieisuke/Desktop/BLAH8_HPO_まとめPhenoAb_hpo 2/Done/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB138F42-2A58-A942-8D6D-58D11758D8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F22C22-8D0D-EB46-9CA9-33E88EC77921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37940" yWindow="3140" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>orig_entry</t>
   </si>
@@ -89,6 +89,63 @@
   </si>
   <si>
     <t>Increased pitch variability of speech</t>
+  </si>
+  <si>
+    <t>弱い声</t>
+  </si>
+  <si>
+    <t>低鼻音</t>
+  </si>
+  <si>
+    <t>甲高い泣き声</t>
+  </si>
+  <si>
+    <t>弱い泣き声</t>
+  </si>
+  <si>
+    <t>スタッカート泣き</t>
+  </si>
+  <si>
+    <t>猫鳴き</t>
+  </si>
+  <si>
+    <t>声の喪失</t>
+  </si>
+  <si>
+    <t>発声障害</t>
+  </si>
+  <si>
+    <t>仮性球麻痺</t>
+  </si>
+  <si>
+    <t>喉頭ジストニア</t>
+  </si>
+  <si>
+    <t>嗄れ声</t>
+  </si>
+  <si>
+    <t>異常に低い声</t>
+  </si>
+  <si>
+    <t>甲高い声</t>
+  </si>
+  <si>
+    <t>不完全声帯内転</t>
+  </si>
+  <si>
+    <t>片側声帯麻痺</t>
+  </si>
+  <si>
+    <t>両側声帯麻痺</t>
+  </si>
+  <si>
+    <t>鼻声</t>
+  </si>
+  <si>
+    <t>単調発声</t>
+  </si>
+  <si>
+    <t>音声のピッチ変動の増大</t>
   </si>
   <si>
     <t>Disease name</t>
@@ -1059,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1073,7 +1130,7 @@
     <col min="7" max="7" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1081,19 +1138,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1621</v>
       </c>
@@ -1106,8 +1163,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>100271</v>
       </c>
@@ -1120,8 +1180,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>25430</v>
       </c>
@@ -1134,8 +1197,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1612</v>
       </c>
@@ -1148,8 +1214,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>25431</v>
       </c>
@@ -1162,8 +1231,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>200046</v>
       </c>
@@ -1176,8 +1248,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>1686</v>
       </c>
@@ -1190,8 +1265,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>9088</v>
       </c>
@@ -1204,8 +1282,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>7024</v>
       </c>
@@ -1218,8 +1299,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>12049</v>
       </c>
@@ -1235,8 +1319,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>1615</v>
       </c>
@@ -1249,8 +1336,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>10300</v>
       </c>
@@ -1263,8 +1353,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>1620</v>
       </c>
@@ -1277,8 +1370,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>5934</v>
       </c>
@@ -1294,8 +1390,11 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>8757</v>
       </c>
@@ -1311,8 +1410,11 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>12820</v>
       </c>
@@ -1328,8 +1430,11 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>12822</v>
       </c>
@@ -1345,8 +1450,11 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>12821</v>
       </c>
@@ -1362,8 +1470,11 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>1611</v>
       </c>
@@ -1376,8 +1487,11 @@
       <c r="F20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>31435</v>
       </c>
@@ -1390,8 +1504,11 @@
       <c r="F21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>31436</v>
       </c>
@@ -1403,6 +1520,9 @@
       </c>
       <c r="F22" s="1">
         <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
